--- a/EfTech/src/main/webapp/resources/MotorOils.xlsx
+++ b/EfTech/src/main/webapp/resources/MotorOils.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Total Quartz 9000 5W-40 5Л</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>5W-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> бензиновый/дизельный</t>
   </si>
   <si>
     <t>d:\Oil1.jpg</t>
@@ -602,14 +599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.140625" style="2" customWidth="1"/>
@@ -636,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -662,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -671,19 +670,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="4">
         <v>4</v>
@@ -691,7 +690,7 @@
     </row>
     <row r="3" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -706,51 +705,51 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4">
         <v>5</v>
@@ -758,7 +757,7 @@
     </row>
     <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -773,19 +772,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="4">
         <v>4</v>
@@ -793,13 +792,13 @@
     </row>
     <row r="6" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -808,19 +807,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="4">
         <v>5</v>
@@ -828,34 +827,34 @@
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4">
         <v>4.7</v>
@@ -863,31 +862,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K8" s="4">
         <v>4.7</v>
@@ -895,7 +894,7 @@
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -910,19 +909,19 @@
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
@@ -930,7 +929,7 @@
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -945,19 +944,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K10" s="4">
         <v>3.6</v>
